--- a/Trabajo Practico N°4.xlsx
+++ b/Trabajo Practico N°4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PASCALITO 03\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FAD123-F633-4290-B9DB-137D2FE87DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8178AED8-F901-43F3-96E5-2177E7E77FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{29504A8A-2042-438D-8731-06F51CE29378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{29504A8A-2042-438D-8731-06F51CE29378}"/>
   </bookViews>
   <sheets>
     <sheet name="BUSCARV" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -335,6 +335,18 @@
   </si>
   <si>
     <t>Nota Minima</t>
+  </si>
+  <si>
+    <t>DESAPROBADOS</t>
+  </si>
+  <si>
+    <t>APROBADOS</t>
+  </si>
+  <si>
+    <t>EMPLEADO ACTIVO</t>
+  </si>
+  <si>
+    <t>JUBILARSE</t>
   </si>
 </sst>
 </file>
@@ -610,7 +622,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -627,16 +638,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -652,16 +657,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -684,6 +698,2043 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>SITUACION</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> ACADEMICA</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>PROMEDIO!$A$19:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DESAPROBADOS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>APROBADOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PROMEDIO!$B$19:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3FD-4DCA-A5BD-3B9B5BEC01F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:glow rad="101600">
+        <a:schemeClr val="accent4">
+          <a:satMod val="175000"/>
+          <a:alpha val="40000"/>
+        </a:schemeClr>
+      </a:glow>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>CONDICION DEL EMPLEADO</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CONDICION SI'!$A$23:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>EMPLEADO ACTIVO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JUBILARSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CONDICION SI'!$B$23:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BDE-450D-858D-5CC973020037}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:glow rad="139700">
+        <a:schemeClr val="accent4">
+          <a:satMod val="175000"/>
+          <a:alpha val="40000"/>
+        </a:schemeClr>
+      </a:glow>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="264">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F857213-837E-D4D0-F5BE-91D6572BF7EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0F7BE0-CEBA-04F6-D9F5-D19E9FFA5F2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -986,7 +3037,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,19 +3312,19 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="5">
         <f>VLOOKUP(C13,A2:F11,6,FALSE)</f>
         <v>5</v>
@@ -1289,7 +3340,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,175 +3349,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="25">
+      <c r="B1" s="22">
         <v>2016</v>
       </c>
-      <c r="C1" s="25">
+      <c r="C1" s="22">
         <v>2017</v>
       </c>
-      <c r="D1" s="25">
+      <c r="D1" s="22">
         <v>2018</v>
       </c>
-      <c r="E1" s="25">
+      <c r="E1" s="22">
         <v>2019</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="25">
         <v>2016</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="29" t="str">
+      <c r="H3" s="26" t="str">
         <f>HLOOKUP(H1,A1:E9,H2,FALSE)</f>
         <v>$ 789,00</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="20" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1477,76 +3527,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3AE6D2-6D16-48AB-AE05-AE70F8F35608}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="10" width="7.7109375" customWidth="1"/>
     <col min="12" max="12" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="16" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>3</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>2</v>
       </c>
-      <c r="G2" s="17" t="str">
+      <c r="G2" s="16" t="str">
         <f>CONCATENATE(B2," ",C2)</f>
         <v>Matias Ibañez</v>
       </c>
@@ -1569,25 +3620,25 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>3</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>2</v>
       </c>
-      <c r="G3" s="17" t="str">
+      <c r="G3" s="16" t="str">
         <f t="shared" ref="G3:G11" si="0">CONCATENATE(B3," ",C3)</f>
         <v>Ramiro Lara</v>
       </c>
@@ -1610,25 +3661,25 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>3</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>4</v>
       </c>
-      <c r="G4" s="17" t="str">
+      <c r="G4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Jesus Perez</v>
       </c>
@@ -1651,25 +3702,25 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>3</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>5</v>
       </c>
-      <c r="G5" s="17" t="str">
+      <c r="G5" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Maia Mamani</v>
       </c>
@@ -1692,25 +3743,25 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>9</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>3</v>
       </c>
-      <c r="G6" s="17" t="str">
+      <c r="G6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Cecilia Arias</v>
       </c>
@@ -1733,25 +3784,25 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>4</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>1</v>
       </c>
-      <c r="G7" s="17" t="str">
+      <c r="G7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Ricardo Gonzalez</v>
       </c>
@@ -1774,25 +3825,25 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>5</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>1</v>
       </c>
-      <c r="G8" s="17" t="str">
+      <c r="G8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Antonio Chosco</v>
       </c>
@@ -1815,25 +3866,25 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>3</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="17" t="str">
+      <c r="G9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Eugenia Vilte</v>
       </c>
@@ -1856,25 +3907,25 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>3</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>1</v>
       </c>
-      <c r="G10" s="17" t="str">
+      <c r="G10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Soledad Maraz</v>
       </c>
@@ -1897,25 +3948,25 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>3</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>1</v>
       </c>
-      <c r="G11" s="17" t="str">
+      <c r="G11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Adriana Gutierrez</v>
       </c>
@@ -1938,40 +3989,58 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="5">
         <f>VLOOKUP(C13,A2:F11,6,FALSE)</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="28" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="2">
-        <f>MAX(H2,I2,J2)</f>
-        <v>9</v>
+        <f>MAX(H2:J11)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="29" t="s">
         <v>101</v>
       </c>
       <c r="B17" s="2">
-        <f>MIN(H2,I2,J2)</f>
-        <v>5</v>
+        <f>MIN(H2:J11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="2">
+        <f>COUNTIF(L2:L11,"DESAPROBADO")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="2">
+        <f>COUNTIF(L2:L11,"APROBADO")</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1979,15 +4048,16 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80924BBE-271E-44C8-AB7B-3FF7F43A84C6}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2417,8 +4487,27 @@
         <v>EMPLEADO ACTIVO</v>
       </c>
     </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="2">
+        <f>COUNTIF(F2:F20,"EMPLEADO ACTIVO")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="2">
+        <f>COUNTIF(F2:F20,"JUBILARSE")</f>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -2436,7 +4525,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F947E1-DC80-4481-BF1F-FFEDB9276ABB}">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:B21"/>
@@ -2444,97 +4533,77 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="C12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="14"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="1">
